--- a/results/2013.09.02_heston_sl_tesla/results_server.xlsx
+++ b/results/2013.09.02_heston_sl_tesla/results_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="11400" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,6 +589,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>